--- a/BBI-23-4.xlsx
+++ b/BBI-23-4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0324AB-0017-47F3-9880-640618A901E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>ФИО</t>
   </si>
@@ -152,12 +151,15 @@
   </si>
   <si>
     <t>Ямалетдинова Алсу</t>
+  </si>
+  <si>
+    <t>Яковлев Максим</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -706,26 +708,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -763,7 +765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -775,7 +777,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2">
-        <f>2*B2+2*C2+4*D2+2*E2+2*F2+4*G2+4*H2</f>
+        <f>SUM(B2:H2)</f>
         <v>0</v>
       </c>
       <c r="J2" s="4">
@@ -788,7 +790,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -800,20 +802,20 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I25" si="0">B3+C3+D3*2+E3+F3+G3*2+H3*2</f>
+        <f t="shared" ref="I3:I31" si="0">SUM(B3:H3)</f>
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J25" si="1">IF(I3&gt;=20,1,0)</f>
+        <f t="shared" ref="J3:J31" si="1">IF(I3&gt;=20,1,0)</f>
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K25" si="2">IF(I3&gt;=95,5,IF(I3&gt;=80,4,IF(I3&gt;=55,3,2)))</f>
+        <f t="shared" ref="K3:K31" si="2">IF(I3&gt;=95,5,IF(I3&gt;=80,4,IF(I3&gt;=55,3,2)))</f>
         <v>2</v>
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -838,7 +840,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -863,7 +865,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -888,7 +890,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -913,7 +915,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
@@ -938,7 +940,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
@@ -963,7 +965,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -988,7 +990,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
@@ -1013,7 +1015,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
@@ -1038,7 +1040,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
@@ -1063,7 +1065,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1088,7 +1090,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -1113,7 +1115,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
@@ -1138,7 +1140,7 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>27</v>
       </c>
@@ -1163,7 +1165,7 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
@@ -1188,7 +1190,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
@@ -1213,7 +1215,7 @@
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -1238,7 +1240,7 @@
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
@@ -1263,7 +1265,7 @@
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>32</v>
       </c>
@@ -1288,7 +1290,7 @@
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>33</v>
       </c>
@@ -1313,7 +1315,7 @@
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
@@ -1338,7 +1340,7 @@
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
@@ -1363,7 +1365,7 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>36</v>
       </c>
@@ -1375,20 +1377,20 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2">
-        <f t="shared" ref="I26:I30" si="3">B26+C26+D26*2+E26+F26+G26*2+H26*2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" ref="J26:J30" si="4">IF(I26&gt;=20,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" ref="K26:K30" si="5">IF(I26&gt;=95,5,IF(I26&gt;=80,4,IF(I26&gt;=55,3,2)))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>37</v>
       </c>
@@ -1400,20 +1402,20 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>38</v>
       </c>
@@ -1425,20 +1427,20 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>39</v>
       </c>
@@ -1450,22 +1452,22 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1475,21 +1477,46 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L30" s="2"/>
     </row>
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L31" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D30">
+  <conditionalFormatting sqref="D2:D31">
     <cfRule type="cellIs" dxfId="16" priority="101" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1509,7 +1536,7 @@
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G30">
+  <conditionalFormatting sqref="G2:G31">
     <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
@@ -1521,7 +1548,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L30">
+  <conditionalFormatting sqref="L2:L31">
     <cfRule type="cellIs" dxfId="7" priority="10" operator="lessThan">
       <formula>3</formula>
     </cfRule>
@@ -1532,7 +1559,7 @@
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K30">
+  <conditionalFormatting sqref="K2:K31">
     <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
@@ -1543,7 +1570,7 @@
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J30">
+  <conditionalFormatting sqref="J2:J31">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
